--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_252.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_252.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,269 +488,316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[('0:01:37.120000', '0:01:44.100000'), ('0:02:11.200000', '0:02:16.340000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:45.200000', '0:01:52.400000'), ('0:00:19.980000', '0:00:28.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_12</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2052631578947368</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E:min', 'C', 'D', 'G'], ['D', 'G', 'E:min', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['B:min', 'G', 'A', 'D'], ['A/3', 'D', 'B:min', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:40.941012', '0:00:51.657021'), ('0:00:45.201874', '0:00:55.929493')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.319115', '0:00:15.029682'), ('0:00:33.477936', '0:00:41.930000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03078358208955224</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06853146853146853</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C', 'C']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.91, 8.66)]</t>
+          <t>[['C:min', 'F:min', 'C:min/5']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.26, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:37.880000', '0:01:48.980000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02882508935777701</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'D:7', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'F:7', 'Bb']]</t>
+          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.39, 18.62)]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.0, 28.15)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:03:26.500000', '0:03:29.360000'), ('0:00:00.780000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:51.473401', '0:01:00.146054'), ('0:00:17.839297', '0:00:22.785147')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1245210727969349</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.070127, 13.723731)]</t>
+          <t>[['D', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:42.371179', '0:00:50.196303')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.039750', '0:00:24.108684')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(60.761383, 72.16238)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -754,359 +806,346 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1138310893512852</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (0.36, 5.0)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(96.752312, 99.387777), (24.387324, 27.452358)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4098837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.26, 13.16)]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(33.814625, 37.738798)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:18.826145', '0:00:26.430680'), ('0:01:42.452811', '0:01:51.264784')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:00.344657', '0:00:11.337709'), ('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.605, 13.84)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04345238095238095</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.89263, 8.504874), (0.497838, 5.89263)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5), (15.32, 17.86)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (2.3, 7.04)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03321205821205821</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.75</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.7, 11.86), (67.76, 77.5)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.43, 14.59), (14.82, 16.26)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1738636363636364</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(22.58999, 28.202)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.614081, 24.271224)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07051282051282051</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.7, 22.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.89, 19.531)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
